--- a/backend/outputs/classifications_remove_data_steps_probe_no.xlsx
+++ b/backend/outputs/classifications_remove_data_steps_probe_no.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>theme</t>
+          <t>participant_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>participant_id</t>
+          <t>response</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>quote</t>
+          <t>assigned_themes</t>
         </is>
       </c>
     </row>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Interest in Data Removal Services</t>
+          <t>P4446</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4466</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yes, I would be interested. But, I participate in many online communities and survey sites, so I'm concerned removing this information might affect that participation.</t>
+          <t>Lack of Interest or Knowledge</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Interest in Data Removal Services</t>
+          <t>P4458</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>Maybe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes.</t>
+          <t>Interest in Data Removal Services</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Interest in Data Removal Services</t>
+          <t>P4461</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4735</t>
+          <t>I am not interested</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yes, it will be beneficial.</t>
+          <t>Lack of Interest or Knowledge</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Concerns About Cost and Convenience</t>
+          <t>P4466</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4505</t>
+          <t>Yes, I would be interested. But, I participate in many online communities and survey sites, so I'm concerned removing this information might affect that participation.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>It depends on the costs and convenience.</t>
+          <t>Interest in Data Removal Services, Concerns About Participation</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Concerns About Cost and Convenience</t>
+          <t>P4485</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4559</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>It would depend on the cost and the steps required to remove my personal information.</t>
+          <t>Interest in Data Removal Services</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Concerns About Cost and Convenience</t>
+          <t>P4489</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4816</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>This would interest me, I just don't know how to go about it.</t>
+          <t>Interest in Data Removal Services</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Uncertainty and Lack of Knowledge</t>
+          <t>P4490</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>no.. I would have to give out information I am not comfortable doing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maybe but I don't know how to do it and not sure how much it would cost.</t>
+          <t>Lack of Interest or Knowledge</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Uncertainty and Lack of Knowledge</t>
+          <t>P4491</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4561</t>
+          <t>Possibly depending if it costs more</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>I would need to know more about it.</t>
+          <t>Cost and Convenience Considerations</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Uncertainty and Lack of Knowledge</t>
+          <t>P4496</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4822</t>
+          <t>Maybe</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yes if it’s not necessary.</t>
+          <t>Interest in Data Removal Services</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Skepticism and Disinterest</t>
+          <t>P4505</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4446</t>
+          <t>it depends on the costs and convenience</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>No.</t>
+          <t>Cost and Convenience Considerations</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Skepticism and Disinterest</t>
+          <t>P4513</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4490</t>
+          <t>Absolutely neither</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>no.. I would have to give out information I am not comfortable doing.</t>
+          <t>Lack of Interest or Knowledge</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Skepticism and Disinterest</t>
+          <t>P4516</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4790</t>
+          <t>I will certainly consider this because because people hacking information online is common place</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>never.</t>
+          <t>Interest in Data Removal Services</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Conditional Interest</t>
+          <t>P4519</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>Maybe but I don't know how to do it and not sure how much it would cost.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Possibly depending if it costs more.</t>
+          <t>Concerns About Participation, Cost and Convenience Considerations</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Conditional Interest</t>
+          <t>P4525</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>I'd be open to it.</t>
+          <t>Lack of Interest or Knowledge</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,699 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Conditional Interest</t>
+          <t>P4532</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4826</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>P4559</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>It would depend on the cost and the steps required to remove my personal information.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cost and Convenience Considerations</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>P4561</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>I would need to know more about it.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>P4570</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>P4573</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>I would be interested</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>P4709</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>P4725</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>P4735</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes, it will be beneficial.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>P4736</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>P4739</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes I would</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>P4741</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>I'd be open to it</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>P4742</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>P4750</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Not at the moment</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>P4751</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>P4754</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>P4760</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>no I don't wish to take</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>P4765</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>not interested</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>P4781</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>lack of interest</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>P4790</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>never</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>P4801</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>not interested</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>P4811</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>P4816</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>This would interest me, I just don't know how to go about it</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services, Concerns About Participation</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>P4818</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>P4822</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Yes if it’s not necessary</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>P4824</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yes I would</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>P4826</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>I would consider it.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>P4829</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>yes i would</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>P4830</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Yes I would be interesting</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Interest in Data Removal Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>P4833</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>P4835</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>P4845</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>remove_data_steps_probe_no</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>P4846</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>no interested</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Lack of Interest or Knowledge</t>
         </is>
       </c>
     </row>
